--- a/src/com/data/Test Cases subs.xlsx
+++ b/src/com/data/Test Cases subs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>TCID</t>
   </si>
@@ -243,10 +243,10 @@
     <t>CcSubs</t>
   </si>
   <si>
-    <t>Curb Cut ::  :: I ::  :: approved :: 888 ::  ::  :: rome18 ::  ::  :: exempted</t>
-  </si>
-  <si>
     <t>AnSubs</t>
+  </si>
+  <si>
+    <t>DOBELECTRICIAN8@GMAIL.COM :: Electrician :: AJ2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,12 +671,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +936,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1011,9 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1467,9 +1458,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="29" customWidth="1"/>
     <col min="4" max="16384" width="32.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -1480,23 +1471,23 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1510,9 +1501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A22" sqref="A22:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -1643,7 +1634,7 @@
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
     </row>
     <row r="7" spans="1:14" s="18" customFormat="1">
       <c r="A7" s="15"/>
@@ -1663,7 +1654,7 @@
     </row>
     <row r="8" spans="1:14" s="14" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="23"/>
       <c r="D8" s="23"/>
@@ -1714,13 +1705,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1734,13 +1725,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1754,13 +1745,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1774,13 +1765,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -1794,13 +1785,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>30</v>
@@ -1814,13 +1805,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>30</v>
@@ -1834,13 +1825,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
@@ -1854,13 +1845,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -1874,20 +1865,18 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" s="20" customFormat="1">
       <c r="B20" s="21"/>
@@ -1927,11 +1916,11 @@
       <c r="A23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>9</v>
@@ -1947,14 +1936,14 @@
       <c r="A24" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>18</v>
+      <c r="B24" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>30</v>
@@ -1967,14 +1956,14 @@
       <c r="A25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>19</v>
+      <c r="B25" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>30</v>
@@ -1987,14 +1976,14 @@
       <c r="A26" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>20</v>
+      <c r="B26" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>30</v>
@@ -2007,14 +1996,14 @@
       <c r="A27" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>21</v>
+      <c r="B27" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>30</v>
@@ -2027,14 +2016,14 @@
       <c r="A28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>22</v>
+      <c r="B28" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>30</v>
@@ -2047,14 +2036,14 @@
       <c r="A29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>23</v>
+      <c r="B29" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>30</v>
@@ -2067,14 +2056,14 @@
       <c r="A30" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>24</v>
+      <c r="B30" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>30</v>
@@ -2087,14 +2076,14 @@
       <c r="A31" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>25</v>
+      <c r="B31" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>30</v>
@@ -2107,21 +2096,19 @@
       <c r="A32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>26</v>
+      <c r="B32" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6" s="20" customFormat="1">
       <c r="B33" s="21"/>
